--- a/SCF/files/订单贷导入模板_new.xlsx
+++ b/SCF/files/订单贷导入模板_new.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>7381624590</t>
+          <t>0256371894</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称758304</t>
+          <t>订单名称068329</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>RXcAoe易动力信息有限公司</t>
+          <t>自动化供应商企业名称</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr"/>
@@ -615,7 +615,7 @@
         <v>10000</v>
       </c>
       <c r="P3" s="6" t="n">
-        <v>44850</v>
+        <v>44854</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>928495058</v>
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7418392560</t>
+          <t>8705642913</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称472819</t>
+          <t>订单名称461590</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RXcAoe易动力信息有限公司</t>
+          <t>自动化供应商企业名称</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -667,7 +667,7 @@
         <v>10001</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>44850</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="5">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4970361285</t>
+          <t>1794538206</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称389702</t>
+          <t>订单名称094572</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RXcAoe易动力信息有限公司</t>
+          <t>自动化供应商企业名称</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -711,7 +711,7 @@
         <v>10002</v>
       </c>
       <c r="P5" s="10" t="n">
-        <v>44850</v>
+        <v>44854</v>
       </c>
     </row>
   </sheetData>

--- a/SCF/files/订单贷导入模板_new.xlsx
+++ b/SCF/files/订单贷导入模板_new.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>0256371894</t>
+          <t>1836975024</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称068329</t>
+          <t>订单名称895146</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -615,7 +615,7 @@
         <v>10000</v>
       </c>
       <c r="P3" s="6" t="n">
-        <v>44854</v>
+        <v>44861</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>928495058</v>
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8705642913</t>
+          <t>9038742651</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称461590</t>
+          <t>订单名称084352</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -667,7 +667,7 @@
         <v>10001</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>44854</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="5">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1794538206</t>
+          <t>5932186407</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称094572</t>
+          <t>订单名称781456</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>10002</v>
       </c>
       <c r="P5" s="10" t="n">
-        <v>44854</v>
+        <v>44861</v>
       </c>
     </row>
   </sheetData>

--- a/SCF/files/订单贷导入模板_new.xlsx
+++ b/SCF/files/订单贷导入模板_new.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>1836975024</t>
+          <t>7893615420</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称895146</t>
+          <t>订单名称351964</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9038742651</t>
+          <t>6817543290</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称084352</t>
+          <t>订单名称802596</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5932186407</t>
+          <t>3627489501</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称781456</t>
+          <t>订单名称497352</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">

--- a/SCF/files/订单贷导入模板_new.xlsx
+++ b/SCF/files/订单贷导入模板_new.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>7893615420</t>
+          <t>9234578160</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称351964</t>
+          <t>订单名称653274</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -615,7 +615,7 @@
         <v>10000</v>
       </c>
       <c r="P3" s="6" t="n">
-        <v>44861</v>
+        <v>44863</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>928495058</v>
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6817543290</t>
+          <t>4276305198</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称802596</t>
+          <t>订单名称674513</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -667,7 +667,7 @@
         <v>10001</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>44861</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="5">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3627489501</t>
+          <t>9831602754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称497352</t>
+          <t>订单名称714908</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>10002</v>
       </c>
       <c r="P5" s="10" t="n">
-        <v>44861</v>
+        <v>44863</v>
       </c>
     </row>
   </sheetData>

--- a/SCF/files/订单贷导入模板_new.xlsx
+++ b/SCF/files/订单贷导入模板_new.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>9234578160</t>
+          <t>9831752604</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称653274</t>
+          <t>订单名称658497</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4276305198</t>
+          <t>1402398765</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称674513</t>
+          <t>订单名称149205</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9831602754</t>
+          <t>9263078451</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称714908</t>
+          <t>订单名称269534</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">

--- a/SCF/files/订单贷导入模板_new.xlsx
+++ b/SCF/files/订单贷导入模板_new.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>9831752604</t>
+          <t>0569832174</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称658497</t>
+          <t>订单名称782301</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1402398765</t>
+          <t>1064528379</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称149205</t>
+          <t>订单名称018623</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9263078451</t>
+          <t>2149803576</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称269534</t>
+          <t>订单名称741359</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">

--- a/SCF/files/订单贷导入模板_new.xlsx
+++ b/SCF/files/订单贷导入模板_new.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>0569832174</t>
+          <t>8271063549</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称782301</t>
+          <t>订单名称804679</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -615,7 +615,7 @@
         <v>10000</v>
       </c>
       <c r="P3" s="6" t="n">
-        <v>44863</v>
+        <v>44872</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>928495058</v>
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1064528379</t>
+          <t>3546719820</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称018623</t>
+          <t>订单名称861075</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -667,7 +667,7 @@
         <v>10001</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>44863</v>
+        <v>44872</v>
       </c>
     </row>
     <row r="5">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2149803576</t>
+          <t>1035964827</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称741359</t>
+          <t>订单名称674189</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>10002</v>
       </c>
       <c r="P5" s="10" t="n">
-        <v>44863</v>
+        <v>44872</v>
       </c>
     </row>
   </sheetData>

--- a/SCF/files/订单贷导入模板_new.xlsx
+++ b/SCF/files/订单贷导入模板_new.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>8271063549</t>
+          <t>6341708952</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称804679</t>
+          <t>订单名称953814</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -615,7 +615,7 @@
         <v>10000</v>
       </c>
       <c r="P3" s="6" t="n">
-        <v>44872</v>
+        <v>44892</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>928495058</v>
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3546719820</t>
+          <t>7396285410</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称861075</t>
+          <t>订单名称025168</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -667,7 +667,7 @@
         <v>10001</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>44872</v>
+        <v>44892</v>
       </c>
     </row>
     <row r="5">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1035964827</t>
+          <t>9170538264</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称674189</t>
+          <t>订单名称306185</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -711,7 +711,7 @@
         <v>10002</v>
       </c>
       <c r="P5" s="10" t="n">
-        <v>44872</v>
+        <v>44892</v>
       </c>
     </row>
   </sheetData>
